--- a/datos.xlsx
+++ b/datos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CodingsWeb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DDAB34-AA32-49E8-BCF9-8BBF6E2DE722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,15 +71,9 @@
     <t>correo</t>
   </si>
   <si>
-    <t>jyron_cedeno@hotmail.com</t>
-  </si>
-  <si>
     <t>movil.jyron@gmail.com</t>
   </si>
   <si>
-    <t>codingsweb@gmail.com</t>
-  </si>
-  <si>
     <t>Salario</t>
   </si>
   <si>
@@ -100,12 +93,18 @@
   </si>
   <si>
     <t>Soporte</t>
+  </si>
+  <si>
+    <t>jyron_cedo9@hotmail.com</t>
+  </si>
+  <si>
+    <t>codingweb8@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-300A]#,##0.00"/>
   </numFmts>
@@ -431,11 +430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -480,7 +479,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>2200</v>
@@ -489,7 +488,7 @@
         <v>45566666788</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,7 +502,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>750</v>
@@ -512,7 +511,7 @@
         <v>9884949444</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -526,7 +525,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>600</v>
@@ -535,7 +534,7 @@
         <v>2222345667</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,7 +548,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>
@@ -569,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>450</v>
@@ -580,9 +579,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{15321A02-A2AD-49A5-BB15-ADCAC8C1A4D4}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{213A4A40-2482-412F-9546-7F0A8BD4D76D}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{96BB2B51-74F2-4E1E-AF50-742C3B9ECEB2}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId4"/>
